--- a/app/audio/Sample map.xlsx
+++ b/app/audio/Sample map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonja\Desktop\audio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonja\Desktop\Work_dir\AudioSampleTestingSite\app\audio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FCD2D8-C824-46C0-8310-DCEE38848FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0D658B-C30C-4817-AF26-7E5A025C4ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="6216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -531,7 +531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
